--- a/base.xlsx
+++ b/base.xlsx
@@ -78,7 +78,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,6 +89,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -127,25 +133,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -449,21 +464,21 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
@@ -485,10 +500,10 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="3">
+      <c r="I1" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="4">
         <v>35002512</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -506,10 +521,10 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="3">
+      <c r="I2" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="4">
         <v>30612612</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -527,10 +542,10 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="3">
+      <c r="I3" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="4">
         <v>32671012</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -548,10 +563,10 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="I4" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="3">
+      <c r="A5" s="4">
         <v>30217412</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -567,12 +582,12 @@
         <v>8</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="4"/>
+      <c r="G5" s="5"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
-      <c r="A6" s="3">
+      <c r="I5" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="4">
         <v>32080412</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -590,10 +605,10 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="I6" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
-      <c r="A7" s="1"/>
+      <c r="A7" s="6"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -601,10 +616,10 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="I7" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
-      <c r="A8" s="1"/>
+      <c r="A8" s="6"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -612,10 +627,10 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="I8" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
-      <c r="A9" s="1"/>
+      <c r="A9" s="6"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -623,10 +638,10 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="I9" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
-      <c r="A10" s="1"/>
+      <c r="A10" s="6"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -634,10 +649,10 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="I10" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
-      <c r="A11" s="1"/>
+      <c r="A11" s="6"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -645,10 +660,10 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="I11" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
-      <c r="A12" s="1"/>
+      <c r="A12" s="6"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -656,10 +671,10 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="I12" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
-      <c r="A13" s="1"/>
+      <c r="A13" s="6"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -667,10 +682,10 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="I13" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
-      <c r="A14" s="1"/>
+      <c r="A14" s="6"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -678,10 +693,10 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="I14" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
-      <c r="A15" s="1"/>
+      <c r="A15" s="6"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -689,10 +704,10 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
-      <c r="A16" s="1"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="6"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -700,18 +715,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="1"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="4"/>
+      <c r="I16" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/base.xlsx
+++ b/base.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>codigo</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>SISTEMAS</t>
+  </si>
+  <si>
+    <t>asd</t>
   </si>
 </sst>
 </file>
@@ -88,13 +91,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -133,7 +136,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -141,20 +144,17 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -470,18 +470,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -607,19 +607,27 @@
       <c r="H6" s="2"/>
       <c r="I6" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="4">
+        <v>32080413</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
-      <c r="A8" s="6"/>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="4"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -629,8 +637,8 @@
       <c r="H8" s="2"/>
       <c r="I8" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
-      <c r="A9" s="6"/>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="4"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -640,8 +648,8 @@
       <c r="H9" s="2"/>
       <c r="I9" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
-      <c r="A10" s="6"/>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="4"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -651,8 +659,8 @@
       <c r="H10" s="2"/>
       <c r="I10" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
-      <c r="A11" s="6"/>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="4"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -662,8 +670,8 @@
       <c r="H11" s="2"/>
       <c r="I11" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
-      <c r="A12" s="6"/>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="4"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -673,8 +681,8 @@
       <c r="H12" s="2"/>
       <c r="I12" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
-      <c r="A13" s="6"/>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="4"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -684,8 +692,8 @@
       <c r="H13" s="2"/>
       <c r="I13" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
-      <c r="A14" s="6"/>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="4"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -695,8 +703,8 @@
       <c r="H14" s="2"/>
       <c r="I14" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
-      <c r="A15" s="6"/>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="4"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -707,7 +715,7 @@
       <c r="I15" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="6"/>
+      <c r="A16" s="4"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>

--- a/base.xlsx
+++ b/base.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>codigo</t>
   </si>
@@ -620,7 +620,9 @@
       <c r="D7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>

--- a/base.xlsx
+++ b/base.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
   <si>
     <t>codigo</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>asd</t>
+  </si>
+  <si>
+    <t>ASD</t>
   </si>
 </sst>
 </file>
@@ -629,10 +632,18 @@
       <c r="I7" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="4"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="A8" s="4">
+        <v>32080417</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
